--- a/techReport_out/descriptive_stats.xlsx
+++ b/techReport_out/descriptive_stats.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSimMacro\PenSimMacro_Data\techReport_out\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\PenSimMacro_Data\techReport_out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177FA07B-DF66-4868-8B2F-DD60A3A7909F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010"/>
   </bookViews>
   <sheets>
     <sheet name="descriptive_stats (2)" sheetId="3" r:id="rId1"/>
@@ -93,38 +92,41 @@
     <t>N</t>
   </si>
   <si>
-    <t>Standdard 
+    <t xml:space="preserve">    GDP growth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Long-term Treasury bond return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Stock return</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Summary statistics of GDP growth, stock return and bond return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Long-term corporate bond</t>
+  </si>
+  <si>
+    <t>Standard 
 Deviation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    GDP growth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Long-term Treasury bond return</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Stock return</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Long-term coorporate bond</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Skewness</t>
-  </si>
-  <si>
-    <t>Kurtosis</t>
-  </si>
-  <si>
-    <t>Summary statistics of GDP growth, stock return and bond return</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -656,13 +658,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="33" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1020,11 +1022,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,14 +1048,14 @@
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="B2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1063,16 +1065,16 @@
         <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -1091,7 +1093,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="7">
         <v>62</v>
@@ -1102,10 +1104,10 @@
       <c r="E5" s="12">
         <v>2.5442282101289099E-2</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>-0.32058521689709002</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>0.27805982513156002</v>
       </c>
       <c r="H5" s="2"/>
@@ -1113,7 +1115,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>62</v>
@@ -1124,10 +1126,10 @@
       <c r="E6" s="12">
         <v>0.15671132168063601</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>-0.38427129777646002</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>2.5557936764394901E-2</v>
       </c>
       <c r="H6" s="2"/>
@@ -1135,7 +1137,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="7">
         <v>62</v>
@@ -1146,10 +1148,10 @@
       <c r="E7" s="12">
         <v>9.8820924995153395E-2</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>0.58119781062202902</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>0.22154465871142801</v>
       </c>
       <c r="H7" s="2"/>
@@ -1157,7 +1159,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C8" s="7">
         <v>62</v>
@@ -1168,10 +1170,10 @@
       <c r="E8" s="12">
         <v>9.6320844630497005E-2</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>0.580777084244395</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>0.515722611412743</v>
       </c>
       <c r="H8" s="2"/>
@@ -1184,14 +1186,14 @@
       <c r="C9" s="7"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7">
         <v>251</v>
@@ -1202,10 +1204,10 @@
       <c r="E10" s="12">
         <v>8.9491150019484697E-3</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>-0.38649768826620201</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>1.39106356601129</v>
       </c>
       <c r="H10" s="2"/>
@@ -1213,7 +1215,7 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="7">
         <v>251</v>
@@ -1224,10 +1226,10 @@
       <c r="E11" s="12">
         <v>7.9198991871906599E-2</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>-0.91747132753756999</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>1.7216541645298999</v>
       </c>
       <c r="H11" s="2"/>
@@ -1235,7 +1237,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7">
         <v>251</v>
@@ -1246,10 +1248,10 @@
       <c r="E12" s="12">
         <v>5.1392549834840602E-2</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>0.65531678489355705</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>2.07727183629226</v>
       </c>
       <c r="H12" s="2"/>
@@ -1257,7 +1259,7 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7">
         <v>251</v>
@@ -1268,10 +1270,10 @@
       <c r="E13" s="12">
         <v>4.7205812423518498E-2</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>0.52204199678227703</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>2.9389423222708899</v>
       </c>
       <c r="H13" s="2"/>
@@ -1305,11 +1307,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1746,11 +1748,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:H10"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
